--- a/ui/static/cehp_merged.xlsx
+++ b/ui/static/cehp_merged.xlsx
@@ -29300,12 +29300,24 @@
       </c>
       <c r="F718" t="inlineStr">
         <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G718" t="inlineStr"/>
-      <c r="H718" t="inlineStr"/>
-      <c r="I718" t="inlineStr"/>
+          <t>941-661-6303</t>
+        </is>
+      </c>
+      <c r="G718" t="inlineStr">
+        <is>
+          <t>PRIVATE</t>
+        </is>
+      </c>
+      <c r="H718" t="inlineStr">
+        <is>
+          <t>KERVIN.SILAIRE@PROTON.ME</t>
+        </is>
+      </c>
+      <c r="I718" t="inlineStr">
+        <is>
+          <t>OR</t>
+        </is>
+      </c>
     </row>
     <row r="719">
       <c r="A719" t="inlineStr">
